--- a/Code Inspection/Metrics/Metrics.xlsx
+++ b/Code Inspection/Metrics/Metrics.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Class</t>
   </si>
@@ -108,6 +109,75 @@
   </si>
   <si>
     <t>C:\Users\DanielFelipe\Documents\GF\4.1.1\appserver\common\container-common\src\main\java\com\sun\enterprise\container\common\impl\util\JavaEEObjectStreamHandlerForJNDIContext.java</t>
+  </si>
+  <si>
+    <t>Naming conventions</t>
+  </si>
+  <si>
+    <t>Indentations</t>
+  </si>
+  <si>
+    <t>Braces</t>
+  </si>
+  <si>
+    <t>File organization</t>
+  </si>
+  <si>
+    <t>Wrapping lines</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Java source files</t>
+  </si>
+  <si>
+    <t>Package import and statements</t>
+  </si>
+  <si>
+    <t>Class and interface declarations</t>
+  </si>
+  <si>
+    <t>Intialization and declarations</t>
+  </si>
+  <si>
+    <t>Method calls</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Object comparison</t>
+  </si>
+  <si>
+    <t>Output format</t>
+  </si>
+  <si>
+    <t>Computation, comparison and assignments</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>Flow of control</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>addJNDIBindings</t>
+  </si>
+  <si>
+    <t>getCompEnvBinding</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>dependencyAppliesToScope</t>
+  </si>
+  <si>
+    <t>Average lines of codes per method</t>
   </si>
 </sst>
 </file>
@@ -440,9 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -451,14 +523,15 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -473,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -492,8 +565,14 @@
         <f>MIN(C8:C27)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -513,7 +592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -524,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -535,7 +614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -546,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -557,7 +636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -568,7 +647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -579,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -590,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -601,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -612,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -748,4 +827,151 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>SUM(B2:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:E20" si="0">SUM(C2:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code Inspection/Metrics/Metrics.xlsx
+++ b/Code Inspection/Metrics/Metrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Class</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Average lines of codes per method</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ComponentEnvManagerImpl</t>
   </si>
 </sst>
 </file>
@@ -245,6 +251,3748 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Issues per method</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Issues!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>addJNDIBindings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Issues!$A$2:$A$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Issues!$A$2:$A$7,Issues!$A$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Naming conventions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Indentations</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braces</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>File organization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wrapping lines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Comments</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Computation, comparison and assignments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Issues!$B$2:$B$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Issues!$B$2:$B$7,Issues!$B$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Issues!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>getCompEnvBinding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Issues!$A$2:$A$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Issues!$A$2:$A$7,Issues!$A$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Naming conventions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Indentations</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braces</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>File organization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wrapping lines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Comments</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Computation, comparison and assignments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Issues!$C$2:$C$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Issues!$C$2:$C$7,Issues!$C$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Issues!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dependencyAppliesToScope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Issues!$A$2:$A$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Issues!$A$2:$A$7,Issues!$A$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Naming conventions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Indentations</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braces</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>File organization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wrapping lines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Comments</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Computation, comparison and assignments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Issues!$D$2:$D$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Issues!$D$2:$D$7,Issues!$D$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Issues!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>create</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Issues!$A$2:$A$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Issues!$A$2:$A$7,Issues!$A$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Naming conventions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Indentations</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Braces</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>File organization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wrapping lines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Comments</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Computation, comparison and assignments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Issues!$E$2:$E$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Issues!$E$2:$E$7,Issues!$E$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="423623880"/>
+        <c:axId val="423613688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="423623880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423613688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423613688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Amount of issues</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423623880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Total of issues per method</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Issues!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>addJNDIBindings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Issues!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Issues!$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Issues!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>getCompEnvBinding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Issues!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Issues!$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Issues!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dependencyAppliesToScope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Issues!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Issues!$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Issues!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>create</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Issues!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Issues!$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="423618392"/>
+        <c:axId val="423615648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="423618392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423615648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423615648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Amount of issues</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423618392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Issues in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> the class</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Issues!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ComponentEnvManagerImpl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="53000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="53000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="53000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="53000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Issues!$A$2:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Issues!$A$2,Issues!$A$8,Issues!$A$10:$A$11,Issues!$A$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Naming conventions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Java source files</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Class and interface declarations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Intialization and declarations</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Computation, comparison and assignments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Issues!$F$2:$F$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Issues!$F$2,Issues!$F$8,Issues!$F$10:$F$11,Issues!$F$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="422244344"/>
+        <c:axId val="422246304"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Issues!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>addJNDIBindings</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:tint val="54000"/>
+                          <a:lumMod val="110000"/>
+                          <a:satMod val="105000"/>
+                          <a:tint val="67000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:tint val="54000"/>
+                          <a:lumMod val="105000"/>
+                          <a:satMod val="103000"/>
+                          <a:tint val="73000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:tint val="54000"/>
+                          <a:lumMod val="105000"/>
+                          <a:satMod val="109000"/>
+                          <a:tint val="81000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:tint val="54000"/>
+                        <a:shade val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Issues!$A$2:$A$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Issues!$A$2,Issues!$A$8,Issues!$A$10:$A$11,Issues!$A$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Naming conventions</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Java source files</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Class and interface declarations</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Intialization and declarations</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Computation, comparison and assignments</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Issues!$B$2:$B$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Issues!$B$2,Issues!$B$8,Issues!$B$10:$B$11,Issues!$B$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Issues!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>getCompEnvBinding</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:tint val="77000"/>
+                          <a:lumMod val="110000"/>
+                          <a:satMod val="105000"/>
+                          <a:tint val="67000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:tint val="77000"/>
+                          <a:lumMod val="105000"/>
+                          <a:satMod val="103000"/>
+                          <a:tint val="73000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:tint val="77000"/>
+                          <a:lumMod val="105000"/>
+                          <a:satMod val="109000"/>
+                          <a:tint val="81000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:tint val="77000"/>
+                        <a:shade val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Issues!$A$2:$A$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Issues!$A$2,Issues!$A$8,Issues!$A$10:$A$11,Issues!$A$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Naming conventions</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Java source files</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Class and interface declarations</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Intialization and declarations</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Computation, comparison and assignments</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Issues!$C$2:$C$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Issues!$C$2,Issues!$C$8,Issues!$C$10:$C$11,Issues!$C$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Issues!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>dependencyAppliesToScope</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="110000"/>
+                          <a:satMod val="105000"/>
+                          <a:tint val="67000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="105000"/>
+                          <a:satMod val="103000"/>
+                          <a:tint val="73000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="105000"/>
+                          <a:satMod val="109000"/>
+                          <a:tint val="81000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:shade val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Issues!$A$2:$A$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Issues!$A$2,Issues!$A$8,Issues!$A$10:$A$11,Issues!$A$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Naming conventions</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Java source files</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Class and interface declarations</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Intialization and declarations</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Computation, comparison and assignments</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Issues!$D$2:$D$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Issues!$D$2,Issues!$D$8,Issues!$D$10:$D$11,Issues!$D$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Issues!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>create</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:shade val="76000"/>
+                          <a:lumMod val="110000"/>
+                          <a:satMod val="105000"/>
+                          <a:tint val="67000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:shade val="76000"/>
+                          <a:lumMod val="105000"/>
+                          <a:satMod val="103000"/>
+                          <a:tint val="73000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:shade val="76000"/>
+                          <a:lumMod val="105000"/>
+                          <a:satMod val="109000"/>
+                          <a:tint val="81000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:shade val="76000"/>
+                        <a:shade val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Issues!$A$2:$A$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Issues!$A$2,Issues!$A$8,Issues!$A$10:$A$11,Issues!$A$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Naming conventions</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Java source files</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Class and interface declarations</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Intialization and declarations</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Computation, comparison and assignments</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Issues!$E$2:$E$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Issues!$E$2,Issues!$E$8,Issues!$E$10:$E$11,Issues!$E$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="422244344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422246304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="422246304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422244344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,7 +4260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -831,9 +4579,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -841,9 +4591,10 @@
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -856,111 +4607,169 @@
       <c r="E1" t="s">
         <v>48</v>
       </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>3+2</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
+      <c r="F8">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
+      <c r="F10">
+        <f>4+1+3</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
+      <c r="F11">
+        <f>4</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B20">
         <f>SUM(B2:B19)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:E20" si="0">SUM(C2:C19)</f>
-        <v>0</v>
+        <f t="shared" ref="C20:F20" si="0">SUM(C2:C19)</f>
+        <v>9</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -968,10 +4777,16 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>